--- a/Office-Hours/Excel-Python/report_students.xlsx
+++ b/Office-Hours/Excel-Python/report_students.xlsx
@@ -455,7 +455,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -485,7 +485,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Oscar</t>
         </is>
       </c>
       <c r="B5" t="n">
